--- a/www/IndicatorsPerCountry/Nicaragua_GDPperCapita_TerritorialRef_1946_2012_CCode_558.xlsx
+++ b/www/IndicatorsPerCountry/Nicaragua_GDPperCapita_TerritorialRef_1946_2012_CCode_558.xlsx
@@ -327,13 +327,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Nicaragua_GDPperCapita_TerritorialRef_1946_2012_CCode_558.xlsx
+++ b/www/IndicatorsPerCountry/Nicaragua_GDPperCapita_TerritorialRef_1946_2012_CCode_558.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="116">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,268 +36,295 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1264</t>
-  </si>
-  <si>
-    <t>1313</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>1459</t>
-  </si>
-  <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>1255</t>
-  </si>
-  <si>
-    <t>1590</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>1415</t>
-  </si>
-  <si>
-    <t>1304</t>
-  </si>
-  <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>1456</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>1288</t>
-  </si>
-  <si>
-    <t>997</t>
-  </si>
-  <si>
-    <t>1053</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>1372</t>
-  </si>
-  <si>
-    <t>1483</t>
-  </si>
-  <si>
-    <t>1395</t>
-  </si>
-  <si>
-    <t>1495</t>
-  </si>
-  <si>
-    <t>1448</t>
-  </si>
-  <si>
-    <t>1423</t>
-  </si>
-  <si>
-    <t>1497</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>1674</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>1888</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2072</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2052</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>2316</t>
   </si>
   <si>
     <t>1983</t>
   </si>
   <si>
-    <t>2065</t>
-  </si>
-  <si>
-    <t>2219</t>
-  </si>
-  <si>
-    <t>2382</t>
-  </si>
-  <si>
-    <t>2578</t>
-  </si>
-  <si>
-    <t>2734</t>
-  </si>
-  <si>
-    <t>2736</t>
-  </si>
-  <si>
-    <t>2835</t>
-  </si>
-  <si>
-    <t>2783</t>
-  </si>
-  <si>
-    <t>2875</t>
-  </si>
-  <si>
-    <t>2812</t>
-  </si>
-  <si>
-    <t>2856</t>
-  </si>
-  <si>
-    <t>2862</t>
-  </si>
-  <si>
-    <t>2921</t>
-  </si>
-  <si>
-    <t>3235</t>
-  </si>
-  <si>
-    <t>3129</t>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>2523</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>2246</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2067</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>2214</t>
+  </si>
+  <si>
+    <t>2373</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>2259</t>
+  </si>
+  <si>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2460</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>2565</t>
+  </si>
+  <si>
+    <t>2657</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>2997</t>
+  </si>
+  <si>
+    <t>3178</t>
+  </si>
+  <si>
+    <t>3288</t>
   </si>
   <si>
     <t>3186</t>
   </si>
   <si>
-    <t>3349</t>
-  </si>
-  <si>
-    <t>3022</t>
-  </si>
-  <si>
-    <t>2151</t>
-  </si>
-  <si>
-    <t>2154</t>
-  </si>
-  <si>
-    <t>2195</t>
-  </si>
-  <si>
-    <t>2119</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>2074</t>
-  </si>
-  <si>
-    <t>1944</t>
-  </si>
-  <si>
-    <t>1862</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1562</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>1324</t>
-  </si>
-  <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t>1293</t>
-  </si>
-  <si>
-    <t>1314</t>
-  </si>
-  <si>
-    <t>1340</t>
-  </si>
-  <si>
-    <t>1375</t>
-  </si>
-  <si>
-    <t>1398</t>
-  </si>
-  <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>1520</t>
-  </si>
-  <si>
-    <t>1532</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>1516</t>
-  </si>
-  <si>
-    <t>1923</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1631</t>
-  </si>
-  <si>
-    <t>1652</t>
+    <t>3351</t>
+  </si>
+  <si>
+    <t>3258</t>
+  </si>
+  <si>
+    <t>3204</t>
+  </si>
+  <si>
+    <t>3148</t>
+  </si>
+  <si>
+    <t>3277</t>
+  </si>
+  <si>
+    <t>3521</t>
+  </si>
+  <si>
+    <t>3781</t>
+  </si>
+  <si>
+    <t>4092</t>
+  </si>
+  <si>
+    <t>4340</t>
+  </si>
+  <si>
+    <t>4342</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>4419</t>
+  </si>
+  <si>
+    <t>4564</t>
+  </si>
+  <si>
+    <t>4463</t>
+  </si>
+  <si>
+    <t>4533</t>
+  </si>
+  <si>
+    <t>4543</t>
+  </si>
+  <si>
+    <t>4637</t>
+  </si>
+  <si>
+    <t>5064</t>
+  </si>
+  <si>
+    <t>5013</t>
+  </si>
+  <si>
+    <t>5099</t>
+  </si>
+  <si>
+    <t>5247</t>
+  </si>
+  <si>
+    <t>4771</t>
+  </si>
+  <si>
+    <t>3405</t>
+  </si>
+  <si>
+    <t>3414</t>
+  </si>
+  <si>
+    <t>3480</t>
+  </si>
+  <si>
+    <t>3360</t>
+  </si>
+  <si>
+    <t>3437</t>
+  </si>
+  <si>
+    <t>3308</t>
+  </si>
+  <si>
+    <t>3107</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>2922</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
+    <t>2393</t>
+  </si>
+  <si>
+    <t>2291</t>
+  </si>
+  <si>
+    <t>2209.79424830776</t>
+  </si>
+  <si>
+    <t>2163.41659168443</t>
+  </si>
+  <si>
+    <t>2114.69189753674</t>
+  </si>
+  <si>
+    <t>2154.29901195949</t>
+  </si>
+  <si>
+    <t>2264.09251825208</t>
+  </si>
+  <si>
+    <t>2395.20217328583</t>
+  </si>
+  <si>
+    <t>2482.69082400451</t>
+  </si>
+  <si>
+    <t>2569.82833048217</t>
+  </si>
+  <si>
+    <t>2748.12700024576</t>
+  </si>
+  <si>
+    <t>2858.5269124027</t>
+  </si>
+  <si>
+    <t>2944.24452676668</t>
+  </si>
+  <si>
+    <t>2969.4575848692</t>
+  </si>
+  <si>
+    <t>3049.14999132693</t>
+  </si>
+  <si>
+    <t>3220.26103652372</t>
+  </si>
+  <si>
+    <t>3370.77750867683</t>
+  </si>
+  <si>
+    <t>3525.553651962</t>
+  </si>
+  <si>
+    <t>3729.85143334289</t>
+  </si>
+  <si>
+    <t>3856.55228301069</t>
+  </si>
+  <si>
+    <t>3771.94704872872</t>
+  </si>
+  <si>
+    <t>3916.96592569171</t>
+  </si>
+  <si>
+    <t>4189</t>
+  </si>
+  <si>
+    <t>4376</t>
+  </si>
+  <si>
+    <t>4527</t>
+  </si>
+  <si>
+    <t>4685</t>
+  </si>
+  <si>
+    <t>4866</t>
+  </si>
+  <si>
+    <t>5045</t>
   </si>
   <si>
     <t>Description</t>
@@ -1911,7 +1938,143 @@
         <v>2008.0</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1929,50 +2092,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
